--- a/meta_spreadsheet_firstauthor.xlsx
+++ b/meta_spreadsheet_firstauthor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/ajg17d_fsu_edu/Documents/Florida State University/Research Projects/meta_suicide_erp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajg17d\OneDrive - Florida State University\Florida State University\Research Projects\meta_suicide_erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1046" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8952C0D-060D-4726-85FC-9F936EF95DDA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="2" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -4214,13 +4214,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6">
         <f>SUM(D2:D5)</f>
         <v>270</v>
@@ -4310,14 +4310,14 @@
       <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>661</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>684</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>521</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>644</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>647</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>663</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>666</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>670</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>672</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>675</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>140</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>154</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>156</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>157</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>158</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>159</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>169</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>170</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>174</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>175</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>176</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>178</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>179</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>183</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>186</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>537</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>539</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>565</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>555</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>527</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>523</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>566</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>559</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>547</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>558</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>533</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>129</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>551</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>567</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>571</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>574</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>581</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>588</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>592</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>594</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>597</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>600</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>604</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>608</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>611</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>613</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>615</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>619</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>622</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>625</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>628</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>630</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>634</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>637</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>651</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>655</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>656</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>659</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>678</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>681</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G197">
         <f>SUM(G2:G196)</f>
         <v>46</v>
@@ -8738,20 +8738,20 @@
       <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>684</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>521</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>644</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>647</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>108</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>663</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>666</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>672</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>675</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>842</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>845</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>44</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>44</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>195</v>
       </c>
@@ -10576,34 +10576,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90853A-A82C-4185-AE1B-AC3373DE1028}">
   <dimension ref="A1:AF193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.265625" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.265625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.28515625" customWidth="1"/>
     <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="6.73046875" customWidth="1"/>
-    <col min="26" max="26" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>0.28196343969713361</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>8.750589507842077E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>0.18644470868014273</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>0.16780023781212844</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>9.6439456416508307E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>0.15229030339083877</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>0.1057831425598335</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>9.6065962019209694E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>8.7359557378242622E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>5.8638985672772481E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>0.10543302850995159</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>9.8921840759678609E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>0.21314328006359476</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>16</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>16</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>17</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>17</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>18</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>0.28435627851616746</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>0.18345566355881771</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>0.32104741122793096</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>0.21097401309264038</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>0.16832749667914504</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>0.1589759690858592</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>0.19435346899535333</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>0.30286641427798805</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>0.31151974040021629</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>0.35478637101135746</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>21</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>0.31550928021729291</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>21</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>0.30674513354459032</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>22</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>22</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>22</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>22</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>22</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>23</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>24</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>24</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>24</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>24</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>24</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>24</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24</v>
       </c>
@@ -20781,7 +20781,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>24</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24</v>
       </c>
@@ -21733,7 +21733,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24</v>
       </c>
@@ -21789,7 +21789,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>24</v>
       </c>
@@ -22013,7 +22013,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>24</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>24</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>24</v>
       </c>
@@ -22237,7 +22237,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24</v>
       </c>
@@ -22293,7 +22293,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>24</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>24</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>24</v>
       </c>
@@ -22461,7 +22461,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>24</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>24</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24</v>
       </c>
@@ -22741,7 +22741,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>24</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>24</v>
       </c>
@@ -22853,7 +22853,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>24</v>
       </c>
@@ -22909,7 +22909,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>24</v>
       </c>
@@ -23021,7 +23021,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>24</v>
       </c>
@@ -23133,7 +23133,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>24</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>24</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>24</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>24</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>24</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>24</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>24</v>
       </c>
@@ -23581,7 +23581,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>24</v>
       </c>
@@ -23637,7 +23637,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>24</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>24</v>
       </c>
@@ -23749,7 +23749,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>24</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>24</v>
       </c>
@@ -23861,7 +23861,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>24</v>
       </c>
@@ -23917,7 +23917,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>24</v>
       </c>
@@ -23973,7 +23973,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>24</v>
       </c>
@@ -24044,13 +24044,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>820</v>
       </c>
@@ -24064,7 +24064,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>821</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>823</v>
       </c>
@@ -24092,7 +24092,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>825</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>827</v>
       </c>
@@ -24120,7 +24120,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>829</v>
       </c>
@@ -24134,7 +24134,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>831</v>
       </c>
@@ -24148,7 +24148,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>833</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>835</v>
       </c>
@@ -24170,7 +24170,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>837</v>
       </c>
@@ -24181,7 +24181,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>967</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>968</v>
       </c>
@@ -24220,21 +24220,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -24457,10 +24442,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
+    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24483,20 +24494,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
-    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/meta_spreadsheet_firstauthor.xlsx
+++ b/meta_spreadsheet_firstauthor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajg17d\OneDrive - Florida State University\Florida State University\Research Projects\meta_suicide_erp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/ajg17d_fsu_edu/Documents/Florida State University/Research Projects/meta_suicide_erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1046" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8952C0D-060D-4726-85FC-9F936EF95DDA}"/>
+  <xr:revisionPtr revIDLastSave="1484" documentId="8_{AE6EE886-186C-438A-A3D8-7543467F2F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FA2527EC-EC13-4502-A019-FCEA1352EC11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
+    <workbookView xWindow="-1823" yWindow="3157" windowWidth="4283" windowHeight="8288" firstSheet="1" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="1053">
   <si>
     <t>Database</t>
   </si>
@@ -2931,9 +2931,6 @@
     <t>post neutral-sbqr</t>
   </si>
   <si>
-    <t>unpublished, 2020a</t>
-  </si>
-  <si>
     <t>Published</t>
   </si>
   <si>
@@ -2947,6 +2944,258 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>Depression evaluation based on prefrontal EEG signals in resting state using fuzzy measure entropy</t>
+  </si>
+  <si>
+    <t>Chen F</t>
+  </si>
+  <si>
+    <t>Yang L</t>
+  </si>
+  <si>
+    <t>Physiol Meas</t>
+  </si>
+  <si>
+    <t>A Phase I, Randomized, Single‑Blind, Placebo‑Controlled, Single Ascending Dose Study of the Safety, Tolerability, and Pharmacokinetics of Subcutaneous and Oral TRV250, a G Protein-Selective Delta Receptor Agonist, in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Fossler MJ</t>
+  </si>
+  <si>
+    <t>Kramer MS</t>
+  </si>
+  <si>
+    <t>CNS Drugs</t>
+  </si>
+  <si>
+    <t>EEG Markers in Emotionally Unstable Personality Disorder-A Possible Outcome Measure for Neurofeedback: A Narrative Review</t>
+  </si>
+  <si>
+    <t>Boland C</t>
+  </si>
+  <si>
+    <t>Lagharne R</t>
+  </si>
+  <si>
+    <t>Active and Passive Attentional Processing in Adolescent Suicide Attempters: An Event-Related Potential Study</t>
+  </si>
+  <si>
+    <t>Relationship between Auditory Evoked Potentials and Circadian Preference in Patients with Major Depressive Episodes</t>
+  </si>
+  <si>
+    <t>Brain Sci</t>
+  </si>
+  <si>
+    <t>Reward Responsiveness in Suicide Attempters: An Electroencephalography/Event-Related Potential Study</t>
+  </si>
+  <si>
+    <t>Unified protocol for anxiety disorders in two cities of Mexico measuring gamma activity: Study protocol for a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>Dominguez-Rodriguez A</t>
+  </si>
+  <si>
+    <t>Avita GC</t>
+  </si>
+  <si>
+    <t>Contemp Clin Trials Commun</t>
+  </si>
+  <si>
+    <t>Differentiating clinically depressed adolescents with and without active suicidality: An examination of neurophysiological and self-report measures of reward responsiveness</t>
+  </si>
+  <si>
+    <t>Pegg S</t>
+  </si>
+  <si>
+    <t>Kujawa A</t>
+  </si>
+  <si>
+    <t>Depress Anxiety</t>
+  </si>
+  <si>
+    <t>Cariprazine Safety in Adolescents and the Elderly: Analyses of Clinical Study Data</t>
+  </si>
+  <si>
+    <t>Szatmári B</t>
+  </si>
+  <si>
+    <t>Gál M</t>
+  </si>
+  <si>
+    <t>Electroencephalography-based neurofeedback as treatment for post-traumatic stress disorder: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Steingrimsson S</t>
+  </si>
+  <si>
+    <t>Bernhardsson S</t>
+  </si>
+  <si>
+    <t>Eur Psychiatry</t>
+  </si>
+  <si>
+    <t>Alzheimer disease starts in childhood in polluted Metropolitan Mexico City. A major health crisis in progress</t>
+  </si>
+  <si>
+    <t>Calderón-Garcidueñas L</t>
+  </si>
+  <si>
+    <t>Mukherjee PS</t>
+  </si>
+  <si>
+    <t>Environ Res</t>
+  </si>
+  <si>
+    <t>Frontal Alpha Asymmetry Moderated by Suicidal Ideation in Patients with Major Depressive Disorder: A Comparison with Healthy Individuals</t>
+  </si>
+  <si>
+    <t>Roh SC</t>
+  </si>
+  <si>
+    <t>Family Risk for Depression and Prioritization of Religion or Spirituality: Early Neurophysiological Modulations of Motivated Attention</t>
+  </si>
+  <si>
+    <t>Kayser J</t>
+  </si>
+  <si>
+    <t>Front Hum Neurosci</t>
+  </si>
+  <si>
+    <t>Mobile Neurofeedback for Pain Management in Veterans with TBI and PTSD</t>
+  </si>
+  <si>
+    <t>Elbogen EB</t>
+  </si>
+  <si>
+    <t>Russoniello C</t>
+  </si>
+  <si>
+    <t>Pain Med</t>
+  </si>
+  <si>
+    <t>Electroencephalogram Resting State Frequency Power Characteristics of Suicidal Behavior in Female Patients With Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t>Benschop L</t>
+  </si>
+  <si>
+    <t>Arns M</t>
+  </si>
+  <si>
+    <t>Fearlessness about death is related to diminished late positive potential responses when viewing threatening and mutilation images in suicidal ideators</t>
+  </si>
+  <si>
+    <t>Bauer BW</t>
+  </si>
+  <si>
+    <t>Capron DW</t>
+  </si>
+  <si>
+    <t>Cognitive Therapy and Research</t>
+  </si>
+  <si>
+    <t>Detection of Suicidal Ideation in Depressed Subjects Using Resting Electroencephalography Features Identified by Machine Learning Algorithms</t>
+  </si>
+  <si>
+    <t>Hasey G</t>
+  </si>
+  <si>
+    <t>Mistry N</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL PSYCHIATRY</t>
+  </si>
+  <si>
+    <t>Morphology of Auditory Evoked Potentials, and its Role in the Evaluation of Suicidal Behavior</t>
+  </si>
+  <si>
+    <t>Saavedra CF</t>
+  </si>
+  <si>
+    <t>Franco MVD</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF MORPHOLOGY</t>
+  </si>
+  <si>
+    <t>Exploratory Analysis of Behavioral Impulsivity, Pro-inflammatory Cytokines, and Resting-State Frontal EEG Activity Associated With Non-suicidal Self-Injury in Patients With Mood Disorder</t>
+  </si>
+  <si>
+    <t>Kim JS</t>
+  </si>
+  <si>
+    <t>Baek JH</t>
+  </si>
+  <si>
+    <t>FRONTIERS IN PSYCHIATRY</t>
+  </si>
+  <si>
+    <t>AUDITORY P3 INDICES OF ATTENTION IN ADOLESCENTS WITH ACUTE SUICIDAL BEHAVIOUR: AN EVENT-RELATED POTENTIAL STUDY</t>
+  </si>
+  <si>
+    <t>Tavakoli F</t>
+  </si>
+  <si>
+    <t>PSYCHOPHYSIOLOGY</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t># New</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>N2; P3</t>
+  </si>
+  <si>
+    <t>Target N2 at Fz</t>
+  </si>
+  <si>
+    <t>Novel N2 at Fz</t>
+  </si>
+  <si>
+    <t>Target P3 at Pz</t>
+  </si>
+  <si>
+    <t>Novel P3 at Cz</t>
+  </si>
+  <si>
+    <t>Tsypes et al.</t>
+  </si>
+  <si>
+    <t>Pegg et al.</t>
+  </si>
+  <si>
+    <t>RewP Win</t>
+  </si>
+  <si>
+    <t>RewP Loss</t>
+  </si>
+  <si>
+    <t>RewP Diff Score</t>
+  </si>
+  <si>
+    <t>Duplicate Data</t>
+  </si>
+  <si>
+    <t>Examining Blunted Initial Response to Reward and Recent Suicidal Ideation in Children and Adolescents Using Event-Related Potentials: Failure to Conceptually Replicate Across Two Independent Samples</t>
+  </si>
+  <si>
+    <t>Gallyer AJ</t>
+  </si>
+  <si>
+    <t>bioRxiv</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>Gallyer et al.</t>
   </si>
 </sst>
 </file>
@@ -4208,19 +4457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14CA69-90BD-40F0-91ED-5F03B1240544}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4233,8 +4483,14 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4247,8 +4503,14 @@
       <c r="D2">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>44120</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4261,8 +4523,14 @@
       <c r="D3">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4275,8 +4543,14 @@
       <c r="D4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4289,11 +4563,28 @@
       <c r="D5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>44124</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D6">
         <f>SUM(D2:D5)</f>
         <v>270</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F2:F5)</f>
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <f>D6+F6</f>
+        <v>298</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -4304,20 +4595,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012B83D4-73C9-416E-BE4F-2E210EAD970C}">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView topLeftCell="A199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:F212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4340,7 +4631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4363,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4386,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4409,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -4432,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4455,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4478,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -4501,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4524,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -4547,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -4567,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -4590,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -4613,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -4636,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -4659,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -4682,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -4705,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -4728,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -4751,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -4774,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -4797,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -4820,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4843,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -4866,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -4889,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -4912,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -4935,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -4958,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -4981,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -5004,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -5027,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -5050,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -5073,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -5096,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5119,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -5142,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -5162,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>661</v>
       </c>
@@ -5185,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5205,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>684</v>
       </c>
@@ -5228,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>521</v>
       </c>
@@ -5251,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -5274,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -5297,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5320,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>644</v>
       </c>
@@ -5343,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>647</v>
       </c>
@@ -5366,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>663</v>
       </c>
@@ -5386,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>666</v>
       </c>
@@ -5406,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>670</v>
       </c>
@@ -5426,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>672</v>
       </c>
@@ -5446,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>675</v>
       </c>
@@ -5466,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -5489,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5512,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -5535,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -5558,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5581,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5604,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5627,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -5650,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -5673,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5696,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -5719,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -5742,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -5765,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -5788,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -5811,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -5834,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -5857,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -5874,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -5897,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -5920,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -5943,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -5966,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -5989,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6012,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -6032,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -6055,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -6078,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -6101,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -6124,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -6147,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -6170,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -6193,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -6216,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -6239,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -6262,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -6285,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -6308,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -6331,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -6351,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -6374,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -6394,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -6417,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -6440,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -6463,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -6486,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -6509,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -6532,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -6555,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -6578,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -6601,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -6624,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -6647,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -6670,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -6693,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -6716,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -6739,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -6762,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -6785,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>140</v>
       </c>
@@ -6808,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -6831,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -6854,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -6877,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -6900,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -6920,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -6943,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -6966,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -6989,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -7012,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -7035,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>154</v>
       </c>
@@ -7058,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -7081,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>156</v>
       </c>
@@ -7104,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>157</v>
       </c>
@@ -7124,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>158</v>
       </c>
@@ -7147,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>159</v>
       </c>
@@ -7170,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -7193,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -7216,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -7239,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -7262,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -7285,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -7305,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -7325,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -7348,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>169</v>
       </c>
@@ -7371,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>170</v>
       </c>
@@ -7391,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -7411,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -7434,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>174</v>
       </c>
@@ -7457,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>175</v>
       </c>
@@ -7480,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>176</v>
       </c>
@@ -7503,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -7526,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>178</v>
       </c>
@@ -7549,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>179</v>
       </c>
@@ -7572,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -7595,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -7618,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>182</v>
       </c>
@@ -7641,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>183</v>
       </c>
@@ -7661,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -7684,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>186</v>
       </c>
@@ -7707,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -7727,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -7747,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -7767,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -7787,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -7807,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -7830,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>537</v>
       </c>
@@ -7850,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>539</v>
       </c>
@@ -7873,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>565</v>
       </c>
@@ -7896,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>555</v>
       </c>
@@ -7919,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>527</v>
       </c>
@@ -7942,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>523</v>
       </c>
@@ -7965,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>566</v>
       </c>
@@ -7985,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>559</v>
       </c>
@@ -8008,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>547</v>
       </c>
@@ -8031,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>558</v>
       </c>
@@ -8054,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>533</v>
       </c>
@@ -8077,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>129</v>
       </c>
@@ -8100,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>551</v>
       </c>
@@ -8120,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>567</v>
       </c>
@@ -8143,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>571</v>
       </c>
@@ -8166,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>574</v>
       </c>
@@ -8189,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>581</v>
       </c>
@@ -8209,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>588</v>
       </c>
@@ -8232,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>592</v>
       </c>
@@ -8252,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>594</v>
       </c>
@@ -8272,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>597</v>
       </c>
@@ -8292,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>600</v>
       </c>
@@ -8315,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>604</v>
       </c>
@@ -8338,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>608</v>
       </c>
@@ -8361,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>611</v>
       </c>
@@ -8381,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>613</v>
       </c>
@@ -8401,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>615</v>
       </c>
@@ -8424,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>619</v>
       </c>
@@ -8447,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>622</v>
       </c>
@@ -8470,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>625</v>
       </c>
@@ -8493,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>628</v>
       </c>
@@ -8513,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>630</v>
       </c>
@@ -8536,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>634</v>
       </c>
@@ -8559,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>637</v>
       </c>
@@ -8582,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>651</v>
       </c>
@@ -8605,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>655</v>
       </c>
@@ -8628,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>656</v>
       </c>
@@ -8651,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>659</v>
       </c>
@@ -8671,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>678</v>
       </c>
@@ -8691,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>681</v>
       </c>
@@ -8711,10 +9002,461 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>969</v>
+      </c>
+      <c r="B197" t="s">
+        <v>970</v>
+      </c>
+      <c r="C197" t="s">
+        <v>971</v>
+      </c>
+      <c r="D197">
+        <v>2020</v>
+      </c>
+      <c r="E197" t="s">
+        <v>972</v>
+      </c>
+      <c r="F197" t="s">
+        <v>37</v>
+      </c>
       <c r="G197">
-        <f>SUM(G2:G196)</f>
-        <v>46</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>973</v>
+      </c>
+      <c r="B198" t="s">
+        <v>974</v>
+      </c>
+      <c r="C198" t="s">
+        <v>975</v>
+      </c>
+      <c r="D198">
+        <v>2020</v>
+      </c>
+      <c r="E198" t="s">
+        <v>976</v>
+      </c>
+      <c r="F198" t="s">
+        <v>519</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>977</v>
+      </c>
+      <c r="B199" t="s">
+        <v>978</v>
+      </c>
+      <c r="C199" t="s">
+        <v>979</v>
+      </c>
+      <c r="D199">
+        <v>2020</v>
+      </c>
+      <c r="E199" t="s">
+        <v>239</v>
+      </c>
+      <c r="F199" t="s">
+        <v>37</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>980</v>
+      </c>
+      <c r="B200" t="s">
+        <v>222</v>
+      </c>
+      <c r="C200" t="s">
+        <v>223</v>
+      </c>
+      <c r="D200">
+        <v>2020</v>
+      </c>
+      <c r="E200" t="s">
+        <v>239</v>
+      </c>
+      <c r="F200" t="s">
+        <v>643</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>981</v>
+      </c>
+      <c r="B201" t="s">
+        <v>237</v>
+      </c>
+      <c r="D201">
+        <v>2020</v>
+      </c>
+      <c r="E201" t="s">
+        <v>982</v>
+      </c>
+      <c r="F201" t="s">
+        <v>37</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>983</v>
+      </c>
+      <c r="B202" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202" t="s">
+        <v>43</v>
+      </c>
+      <c r="D202">
+        <v>2020</v>
+      </c>
+      <c r="E202" t="s">
+        <v>45</v>
+      </c>
+      <c r="F202" t="s">
+        <v>37</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>984</v>
+      </c>
+      <c r="B203" t="s">
+        <v>985</v>
+      </c>
+      <c r="C203" t="s">
+        <v>986</v>
+      </c>
+      <c r="D203">
+        <v>2020</v>
+      </c>
+      <c r="E203" t="s">
+        <v>987</v>
+      </c>
+      <c r="F203" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>988</v>
+      </c>
+      <c r="B204" t="s">
+        <v>989</v>
+      </c>
+      <c r="C204" t="s">
+        <v>990</v>
+      </c>
+      <c r="D204">
+        <v>2020</v>
+      </c>
+      <c r="E204" t="s">
+        <v>991</v>
+      </c>
+      <c r="F204" t="s">
+        <v>519</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>992</v>
+      </c>
+      <c r="B205" t="s">
+        <v>993</v>
+      </c>
+      <c r="C205" t="s">
+        <v>994</v>
+      </c>
+      <c r="D205">
+        <v>2020</v>
+      </c>
+      <c r="E205" t="s">
+        <v>204</v>
+      </c>
+      <c r="F205" t="s">
+        <v>519</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>995</v>
+      </c>
+      <c r="B206" t="s">
+        <v>996</v>
+      </c>
+      <c r="C206" t="s">
+        <v>997</v>
+      </c>
+      <c r="D206">
+        <v>2020</v>
+      </c>
+      <c r="E206" t="s">
+        <v>998</v>
+      </c>
+      <c r="F206" t="s">
+        <v>519</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>999</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D207">
+        <v>2020</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F207" t="s">
+        <v>37</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C208" t="s">
+        <v>199</v>
+      </c>
+      <c r="D208">
+        <v>2020</v>
+      </c>
+      <c r="E208" t="s">
+        <v>200</v>
+      </c>
+      <c r="F208" t="s">
+        <v>519</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C209" t="s">
+        <v>365</v>
+      </c>
+      <c r="D209">
+        <v>2019</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F209" t="s">
+        <v>519</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D210">
+        <v>2019</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F210" t="s">
+        <v>37</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D211">
+        <v>2019</v>
+      </c>
+      <c r="E211" t="s">
+        <v>247</v>
+      </c>
+      <c r="F211" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D212">
+        <v>2020</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F212" t="s">
+        <v>642</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D213">
+        <v>2020</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F213" t="s">
+        <v>4</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D214">
+        <v>2020</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F214" t="s">
+        <v>4</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D215">
+        <v>2020</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F215" t="s">
+        <v>4</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C216" t="s">
+        <v>223</v>
+      </c>
+      <c r="D216">
+        <v>2020</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F216" t="s">
+        <v>4</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8729,29 +9471,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9CFB2-E36F-473E-93F7-18105F56F26D}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -8801,7 +9543,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8839,7 +9581,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -8877,7 +9619,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -8915,7 +9657,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>684</v>
       </c>
@@ -8953,7 +9695,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -8985,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -9017,7 +9759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
@@ -9046,7 +9788,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -9078,7 +9820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -9116,7 +9858,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -9154,7 +9896,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -9183,7 +9925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>521</v>
       </c>
@@ -9221,7 +9963,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -9253,7 +9995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -9285,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -9323,7 +10065,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -9361,7 +10103,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -9393,7 +10135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -9431,7 +10173,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -9469,7 +10211,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>644</v>
       </c>
@@ -9498,7 +10240,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>647</v>
       </c>
@@ -9527,7 +10269,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -9574,7 +10316,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
@@ -9615,7 +10357,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -9647,7 +10389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -9679,7 +10421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -9711,7 +10453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -9749,7 +10491,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -9787,7 +10529,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
@@ -9825,7 +10567,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>108</v>
       </c>
@@ -9863,7 +10605,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>663</v>
       </c>
@@ -9898,7 +10640,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -9936,7 +10678,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>666</v>
       </c>
@@ -9959,7 +10701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -9997,7 +10739,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>672</v>
       </c>
@@ -10026,7 +10768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -10058,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -10084,7 +10826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -10119,7 +10861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -10160,7 +10902,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -10201,7 +10943,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -10242,7 +10984,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>578</v>
       </c>
@@ -10277,7 +11019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -10312,7 +11054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>675</v>
       </c>
@@ -10335,7 +11077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -10370,7 +11112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -10402,7 +11144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>842</v>
       </c>
@@ -10443,7 +11185,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>845</v>
       </c>
@@ -10478,18 +11220,24 @@
         <v>841</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>983</v>
+      </c>
       <c r="B50" t="s">
         <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
       </c>
-      <c r="D50" t="s">
-        <v>851</v>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>852</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>688</v>
@@ -10507,7 +11255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>44</v>
       </c>
@@ -10536,7 +11284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>195</v>
       </c>
@@ -10560,6 +11308,184 @@
       </c>
       <c r="O52">
         <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>980</v>
+      </c>
+      <c r="B53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" t="s">
+        <v>643</v>
+      </c>
+      <c r="G53" t="s">
+        <v>688</v>
+      </c>
+      <c r="H53" t="s">
+        <v>688</v>
+      </c>
+      <c r="I53" t="s">
+        <v>688</v>
+      </c>
+      <c r="J53" t="s">
+        <v>688</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>981</v>
+      </c>
+      <c r="B54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54">
+        <v>2020</v>
+      </c>
+      <c r="E54" t="s">
+        <v>982</v>
+      </c>
+      <c r="F54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
+        <v>688</v>
+      </c>
+      <c r="H54" t="s">
+        <v>688</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>988</v>
+      </c>
+      <c r="B55" t="s">
+        <v>989</v>
+      </c>
+      <c r="C55" t="s">
+        <v>990</v>
+      </c>
+      <c r="D55">
+        <v>2020</v>
+      </c>
+      <c r="E55" t="s">
+        <v>991</v>
+      </c>
+      <c r="F55" t="s">
+        <v>519</v>
+      </c>
+      <c r="G55" t="s">
+        <v>688</v>
+      </c>
+      <c r="H55" t="s">
+        <v>688</v>
+      </c>
+      <c r="I55" t="s">
+        <v>688</v>
+      </c>
+      <c r="J55" t="s">
+        <v>688</v>
+      </c>
+      <c r="L55" t="s">
+        <v>704</v>
+      </c>
+      <c r="O55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F56" t="s">
+        <v>642</v>
+      </c>
+      <c r="G56" t="s">
+        <v>688</v>
+      </c>
+      <c r="H56" t="s">
+        <v>688</v>
+      </c>
+      <c r="I56" t="s">
+        <v>688</v>
+      </c>
+      <c r="J56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C57" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G57" t="s">
+        <v>688</v>
+      </c>
+      <c r="H57" t="s">
+        <v>688</v>
+      </c>
+      <c r="I57" t="s">
+        <v>688</v>
+      </c>
+      <c r="J57" t="s">
+        <v>688</v>
+      </c>
+      <c r="O57">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -10574,41 +11500,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90853A-A82C-4185-AE1B-AC3373DE1028}">
-  <dimension ref="A1:AF193"/>
+  <dimension ref="A1:AF209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W201" sqref="W201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.265625" customWidth="1"/>
     <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="6.7109375" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.73046875" customWidth="1"/>
+    <col min="26" max="26" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>860</v>
@@ -10701,7 +11627,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10736,7 +11662,7 @@
         <v>693</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>689</v>
@@ -10769,7 +11695,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -10837,7 +11763,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10872,7 +11798,7 @@
         <v>693</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q4" t="s">
         <v>689</v>
@@ -10905,7 +11831,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10973,7 +11899,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11041,7 +11967,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11076,7 +12002,7 @@
         <v>693</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q7" t="s">
         <v>689</v>
@@ -11109,7 +12035,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11177,7 +12103,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11212,7 +12138,7 @@
         <v>693</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q9" t="s">
         <v>689</v>
@@ -11245,7 +12171,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -11313,7 +12239,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11348,7 +12274,7 @@
         <v>693</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q11" t="s">
         <v>689</v>
@@ -11381,7 +12307,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11449,7 +12375,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11484,7 +12410,7 @@
         <v>693</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q13" t="s">
         <v>689</v>
@@ -11517,7 +12443,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11585,7 +12511,7 @@
         <v>1.9877613749829152E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11632,7 +12558,7 @@
         <v>701</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>747</v>
@@ -11675,7 +12601,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
@@ -11765,7 +12691,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -11855,7 +12781,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
@@ -11902,7 +12828,7 @@
         <v>701</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>724</v>
@@ -11945,7 +12871,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12035,7 +12961,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -12125,7 +13051,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12172,7 +13098,7 @@
         <v>701</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>747</v>
@@ -12215,7 +13141,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -12305,7 +13231,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12395,7 +13321,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
@@ -12442,7 +13368,7 @@
         <v>701</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>724</v>
@@ -12485,7 +13411,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -12575,7 +13501,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12665,7 +13591,7 @@
         <v>6.8412149951567913E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -12733,7 +13659,7 @@
         <v>0.28196343969713361</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -12801,7 +13727,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12869,7 +13795,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -12937,7 +13863,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -13005,7 +13931,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -13073,7 +13999,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13141,7 +14067,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -13209,7 +14135,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -13277,7 +14203,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -13345,7 +14271,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -13413,7 +14339,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -13481,7 +14407,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -13549,7 +14475,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -13617,7 +14543,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -13685,7 +14611,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -13753,7 +14679,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3</v>
       </c>
@@ -13821,7 +14747,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -13889,7 +14815,7 @@
         <v>6.8060140616549497E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -13957,7 +14883,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -14025,7 +14951,7 @@
         <v>8.750589507842077E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -14093,7 +15019,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -14161,7 +15087,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -14229,7 +15155,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3</v>
       </c>
@@ -14297,7 +15223,7 @@
         <v>7.7783017847485134E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4</v>
       </c>
@@ -14344,7 +15270,7 @@
         <v>703</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q51" t="s">
         <v>704</v>
@@ -14378,7 +15304,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>4</v>
       </c>
@@ -14468,7 +15394,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>4</v>
       </c>
@@ -14549,7 +15475,7 @@
         <v>6.843580356015655E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5</v>
       </c>
@@ -14596,7 +15522,7 @@
         <v>703</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q54" t="s">
         <v>724</v>
@@ -14639,7 +15565,7 @@
         <v>0.18644470868014273</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5</v>
       </c>
@@ -14686,7 +15612,7 @@
         <v>703</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>724</v>
@@ -14729,7 +15655,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5</v>
       </c>
@@ -14776,7 +15702,7 @@
         <v>703</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>724</v>
@@ -14819,7 +15745,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5</v>
       </c>
@@ -14866,7 +15792,7 @@
         <v>703</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>724</v>
@@ -14909,7 +15835,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5</v>
       </c>
@@ -14956,7 +15882,7 @@
         <v>703</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>724</v>
@@ -14999,7 +15925,7 @@
         <v>0.16780023781212844</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5</v>
       </c>
@@ -15046,7 +15972,7 @@
         <v>703</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>724</v>
@@ -15089,7 +16015,7 @@
         <v>0.15847800237812132</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>6</v>
       </c>
@@ -15179,7 +16105,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>6</v>
       </c>
@@ -15269,7 +16195,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>6</v>
       </c>
@@ -15359,7 +16285,7 @@
         <v>1.9871314006975397E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>7</v>
       </c>
@@ -15427,7 +16353,7 @@
         <v>9.6439456416508307E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>8</v>
       </c>
@@ -15495,7 +16421,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>8</v>
       </c>
@@ -15563,7 +16489,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>8</v>
       </c>
@@ -15631,7 +16557,7 @@
         <v>1.9828694579012325E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>9</v>
       </c>
@@ -15721,7 +16647,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>9</v>
       </c>
@@ -15811,7 +16737,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>9</v>
       </c>
@@ -15901,7 +16827,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>9</v>
       </c>
@@ -15991,7 +16917,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>9</v>
       </c>
@@ -16081,7 +17007,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>9</v>
       </c>
@@ -16171,7 +17097,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>9</v>
       </c>
@@ -16261,7 +17187,7 @@
         <v>0.14277215942891133</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>9</v>
       </c>
@@ -16351,7 +17277,7 @@
         <v>0.13325401546698393</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>9</v>
       </c>
@@ -16441,7 +17367,7 @@
         <v>0.15229030339083877</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>10</v>
       </c>
@@ -16509,7 +17435,7 @@
         <v>0.1057831425598335</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>11</v>
       </c>
@@ -16595,7 +17521,7 @@
         <v>9.6065962019209694E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>12</v>
       </c>
@@ -16660,7 +17586,7 @@
         <v>8.7359557378242622E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>12</v>
       </c>
@@ -16725,7 +17651,7 @@
         <v>5.8638985672772481E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>13</v>
       </c>
@@ -16808,7 +17734,7 @@
         <v>0.10543302850995159</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>14</v>
       </c>
@@ -16894,7 +17820,7 @@
         <v>9.8921840759678609E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>15</v>
       </c>
@@ -16962,7 +17888,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>15</v>
       </c>
@@ -17030,7 +17956,7 @@
         <v>9.6166493236212278E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>16</v>
       </c>
@@ -17077,7 +18003,7 @@
         <v>703</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q84" t="s">
         <v>724</v>
@@ -17120,7 +18046,7 @@
         <v>0.21314328006359476</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>16</v>
       </c>
@@ -17167,7 +18093,7 @@
         <v>703</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>724</v>
@@ -17210,7 +18136,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>16</v>
       </c>
@@ -17257,7 +18183,7 @@
         <v>703</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>724</v>
@@ -17300,7 +18226,7 @@
         <v>8.7194978207834214E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>17</v>
       </c>
@@ -17387,7 +18313,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>17</v>
       </c>
@@ -17474,7 +18400,7 @@
         <v>8.7894809688581321E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>17</v>
       </c>
@@ -17561,7 +18487,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>17</v>
       </c>
@@ -17648,7 +18574,7 @@
         <v>7.8128719723183401E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>18</v>
       </c>
@@ -17738,7 +18664,7 @@
         <v>0.28435627851616746</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>18</v>
       </c>
@@ -17828,7 +18754,7 @@
         <v>0.18345566355881771</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>18</v>
       </c>
@@ -17918,7 +18844,7 @@
         <v>0.32104741122793096</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>18</v>
       </c>
@@ -18008,7 +18934,7 @@
         <v>0.21097401309264038</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>19</v>
       </c>
@@ -18092,7 +19018,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>19</v>
       </c>
@@ -18176,7 +19102,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>19</v>
       </c>
@@ -18263,7 +19189,7 @@
         <v>5.861808857947854E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>20</v>
       </c>
@@ -18338,7 +19264,7 @@
         <v>0.16832749667914504</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>20</v>
       </c>
@@ -18413,7 +19339,7 @@
         <v>0.1589759690858592</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>20</v>
       </c>
@@ -18488,7 +19414,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>20</v>
       </c>
@@ -18563,7 +19489,7 @@
         <v>0.19435346899535333</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>20</v>
       </c>
@@ -18638,7 +19564,7 @@
         <v>0.20360839609037015</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>20</v>
       </c>
@@ -18713,7 +19639,7 @@
         <v>0.30286641427798805</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>20</v>
       </c>
@@ -18788,7 +19714,7 @@
         <v>0.31151974040021629</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>20</v>
       </c>
@@ -18863,7 +19789,7 @@
         <v>0.35478637101135746</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>21</v>
       </c>
@@ -18907,7 +19833,7 @@
         <v>703</v>
       </c>
       <c r="P106" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q106" t="s">
         <v>724</v>
@@ -18950,7 +19876,7 @@
         <v>0.31550928021729291</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>21</v>
       </c>
@@ -18994,7 +19920,7 @@
         <v>703</v>
       </c>
       <c r="P107" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q107" t="s">
         <v>730</v>
@@ -19037,7 +19963,7 @@
         <v>0.30674513354459032</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>22</v>
       </c>
@@ -19045,10 +19971,10 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>862</v>
-      </c>
-      <c r="D108" t="s">
-        <v>964</v>
+        <v>1042</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
       </c>
       <c r="E108">
         <v>107</v>
@@ -19059,6 +19985,12 @@
       <c r="G108" t="s">
         <v>698</v>
       </c>
+      <c r="H108">
+        <v>24.92</v>
+      </c>
+      <c r="I108" t="s">
+        <v>719</v>
+      </c>
       <c r="L108">
         <v>30</v>
       </c>
@@ -19072,7 +20004,7 @@
         <v>703</v>
       </c>
       <c r="P108" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q108" t="s">
         <v>724</v>
@@ -19115,7 +20047,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>22</v>
       </c>
@@ -19123,10 +20055,10 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>862</v>
-      </c>
-      <c r="D109" t="s">
-        <v>964</v>
+        <v>1042</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
       </c>
       <c r="E109">
         <v>108</v>
@@ -19137,6 +20069,12 @@
       <c r="G109" t="s">
         <v>698</v>
       </c>
+      <c r="H109">
+        <v>24.92</v>
+      </c>
+      <c r="I109" t="s">
+        <v>719</v>
+      </c>
       <c r="L109">
         <v>30</v>
       </c>
@@ -19150,7 +20088,7 @@
         <v>703</v>
       </c>
       <c r="P109" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q109" t="s">
         <v>730</v>
@@ -19193,7 +20131,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>22</v>
       </c>
@@ -19201,10 +20139,10 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>862</v>
-      </c>
-      <c r="D110" t="s">
-        <v>964</v>
+        <v>1042</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
       </c>
       <c r="E110">
         <v>109</v>
@@ -19215,6 +20153,12 @@
       <c r="G110" t="s">
         <v>698</v>
       </c>
+      <c r="H110">
+        <v>24.92</v>
+      </c>
+      <c r="I110" t="s">
+        <v>719</v>
+      </c>
       <c r="L110">
         <v>30</v>
       </c>
@@ -19228,7 +20172,7 @@
         <v>703</v>
       </c>
       <c r="P110" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q110" t="s">
         <v>854</v>
@@ -19271,7 +20215,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>22</v>
       </c>
@@ -19279,10 +20223,10 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>862</v>
-      </c>
-      <c r="D111" t="s">
-        <v>964</v>
+        <v>1042</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
       </c>
       <c r="E111">
         <v>110</v>
@@ -19293,6 +20237,12 @@
       <c r="G111" t="s">
         <v>698</v>
       </c>
+      <c r="H111">
+        <v>24.92</v>
+      </c>
+      <c r="I111" t="s">
+        <v>719</v>
+      </c>
       <c r="L111">
         <v>30</v>
       </c>
@@ -19306,7 +20256,7 @@
         <v>703</v>
       </c>
       <c r="P111" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q111" t="s">
         <v>704</v>
@@ -19349,7 +20299,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>22</v>
       </c>
@@ -19357,10 +20307,10 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>862</v>
-      </c>
-      <c r="D112" t="s">
-        <v>964</v>
+        <v>1042</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
       </c>
       <c r="E112">
         <v>111</v>
@@ -19371,6 +20321,12 @@
       <c r="G112" t="s">
         <v>698</v>
       </c>
+      <c r="H112">
+        <v>24.92</v>
+      </c>
+      <c r="I112" t="s">
+        <v>719</v>
+      </c>
       <c r="L112">
         <v>30</v>
       </c>
@@ -19384,7 +20340,7 @@
         <v>703</v>
       </c>
       <c r="P112" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q112" t="s">
         <v>704</v>
@@ -19427,7 +20383,7 @@
         <v>6.8193624557260926E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>23</v>
       </c>
@@ -19505,7 +20461,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>23</v>
       </c>
@@ -19583,7 +20539,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>23</v>
       </c>
@@ -19618,7 +20574,7 @@
         <v>703</v>
       </c>
       <c r="P115" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q115" t="s">
         <v>704</v>
@@ -19661,7 +20617,7 @@
         <v>7.755739644970415E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>24</v>
       </c>
@@ -19717,7 +20673,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>24</v>
       </c>
@@ -19773,7 +20729,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>24</v>
       </c>
@@ -19829,7 +20785,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>24</v>
       </c>
@@ -19885,7 +20841,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>24</v>
       </c>
@@ -19941,7 +20897,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>24</v>
       </c>
@@ -19997,7 +20953,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>24</v>
       </c>
@@ -20053,7 +21009,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>24</v>
       </c>
@@ -20109,7 +21065,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>24</v>
       </c>
@@ -20165,7 +21121,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>24</v>
       </c>
@@ -20221,7 +21177,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>24</v>
       </c>
@@ -20277,7 +21233,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>24</v>
       </c>
@@ -20333,7 +21289,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>24</v>
       </c>
@@ -20389,7 +21345,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>24</v>
       </c>
@@ -20445,7 +21401,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>24</v>
       </c>
@@ -20501,7 +21457,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>24</v>
       </c>
@@ -20549,15 +21505,15 @@
         <v>0.99125364431486884</v>
       </c>
       <c r="AE131" s="2">
-        <f t="shared" ref="AE131:AE193" si="11">AD131*AB131</f>
+        <f t="shared" ref="AE131:AE194" si="11">AD131*AB131</f>
         <v>-9.9125364431486895E-2</v>
       </c>
       <c r="AF131" s="2">
-        <f t="shared" ref="AF131:AF193" si="12">(AD131^2)*AC131</f>
+        <f t="shared" ref="AF131:AF194" si="12">(AD131^2)*AC131</f>
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>24</v>
       </c>
@@ -20613,7 +21569,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>24</v>
       </c>
@@ -20669,7 +21625,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>24</v>
       </c>
@@ -20725,7 +21681,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>24</v>
       </c>
@@ -20781,7 +21737,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>24</v>
       </c>
@@ -20837,7 +21793,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>24</v>
       </c>
@@ -20893,7 +21849,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>24</v>
       </c>
@@ -20949,7 +21905,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>24</v>
       </c>
@@ -21005,7 +21961,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>24</v>
       </c>
@@ -21061,7 +22017,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>24</v>
       </c>
@@ -21117,7 +22073,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>24</v>
       </c>
@@ -21173,7 +22129,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>24</v>
       </c>
@@ -21229,7 +22185,7 @@
         <v>4.9118959981204482E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>24</v>
       </c>
@@ -21285,7 +22241,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>24</v>
       </c>
@@ -21341,7 +22297,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>24</v>
       </c>
@@ -21397,7 +22353,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>24</v>
       </c>
@@ -21453,7 +22409,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>24</v>
       </c>
@@ -21509,7 +22465,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>24</v>
       </c>
@@ -21565,7 +22521,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>24</v>
       </c>
@@ -21621,7 +22577,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>24</v>
       </c>
@@ -21677,7 +22633,7 @@
         <v>4.9108487413677883E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>24</v>
       </c>
@@ -21733,7 +22689,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>24</v>
       </c>
@@ -21789,7 +22745,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>24</v>
       </c>
@@ -21845,7 +22801,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>24</v>
       </c>
@@ -21901,7 +22857,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>24</v>
       </c>
@@ -21957,7 +22913,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>24</v>
       </c>
@@ -22013,7 +22969,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>24</v>
       </c>
@@ -22069,7 +23025,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>24</v>
       </c>
@@ -22125,7 +23081,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>24</v>
       </c>
@@ -22181,7 +23137,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>24</v>
       </c>
@@ -22237,7 +23193,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>24</v>
       </c>
@@ -22293,7 +23249,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>24</v>
       </c>
@@ -22349,7 +23305,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>24</v>
       </c>
@@ -22405,7 +23361,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>24</v>
       </c>
@@ -22461,7 +23417,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>24</v>
       </c>
@@ -22517,7 +23473,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>24</v>
       </c>
@@ -22573,7 +23529,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>24</v>
       </c>
@@ -22629,7 +23585,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>24</v>
       </c>
@@ -22685,7 +23641,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>24</v>
       </c>
@@ -22741,7 +23697,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>24</v>
       </c>
@@ -22797,7 +23753,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>24</v>
       </c>
@@ -22853,7 +23809,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>24</v>
       </c>
@@ -22909,7 +23865,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>24</v>
       </c>
@@ -22965,7 +23921,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>24</v>
       </c>
@@ -23021,7 +23977,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>24</v>
       </c>
@@ -23077,7 +24033,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>24</v>
       </c>
@@ -23133,7 +24089,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>24</v>
       </c>
@@ -23189,7 +24145,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>24</v>
       </c>
@@ -23245,7 +24201,7 @@
         <v>4.9158500297560012E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>24</v>
       </c>
@@ -23301,7 +24257,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>24</v>
       </c>
@@ -23357,7 +24313,7 @@
         <v>3.9326800238048007E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>24</v>
       </c>
@@ -23413,7 +24369,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>24</v>
       </c>
@@ -23469,7 +24425,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>24</v>
       </c>
@@ -23525,7 +24481,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>24</v>
       </c>
@@ -23581,7 +24537,7 @@
         <v>4.9148951713054279E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>24</v>
       </c>
@@ -23637,7 +24593,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>24</v>
       </c>
@@ -23693,7 +24649,7 @@
         <v>3.9319161370443424E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>24</v>
       </c>
@@ -23749,7 +24705,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>24</v>
       </c>
@@ -23805,7 +24761,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>24</v>
       </c>
@@ -23861,7 +24817,7 @@
         <v>4.9129189368375431E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>24</v>
       </c>
@@ -23917,7 +24873,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>24</v>
       </c>
@@ -23973,7 +24929,7 @@
         <v>4.9139183948043751E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>24</v>
       </c>
@@ -24027,6 +24983,1380 @@
       <c r="AF193" s="2">
         <f t="shared" si="12"/>
         <v>4.9139183948043751E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>25</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>877</v>
+      </c>
+      <c r="D194">
+        <v>2020</v>
+      </c>
+      <c r="E194">
+        <v>193</v>
+      </c>
+      <c r="F194" t="s">
+        <v>697</v>
+      </c>
+      <c r="G194" t="s">
+        <v>713</v>
+      </c>
+      <c r="H194">
+        <v>15.7</v>
+      </c>
+      <c r="I194" t="s">
+        <v>714</v>
+      </c>
+      <c r="J194" t="s">
+        <v>715</v>
+      </c>
+      <c r="K194" t="s">
+        <v>716</v>
+      </c>
+      <c r="L194">
+        <v>14</v>
+      </c>
+      <c r="M194">
+        <v>14</v>
+      </c>
+      <c r="N194" t="s">
+        <v>707</v>
+      </c>
+      <c r="O194" t="s">
+        <v>703</v>
+      </c>
+      <c r="P194" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>747</v>
+      </c>
+      <c r="R194" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S194">
+        <v>-1.71</v>
+      </c>
+      <c r="T194">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U194">
+        <v>3.56</v>
+      </c>
+      <c r="V194">
+        <v>1.99</v>
+      </c>
+      <c r="W194">
+        <f>L194+M194</f>
+        <v>28</v>
+      </c>
+      <c r="AB194">
+        <v>-0.62</v>
+      </c>
+      <c r="AC194">
+        <v>0.15</v>
+      </c>
+      <c r="AD194" s="2">
+        <f t="shared" ref="AD194:AD202" si="13">1-(3/(4*(W194-2)-1))</f>
+        <v>0.970873786407767</v>
+      </c>
+      <c r="AE194" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.60194174757281549</v>
+      </c>
+      <c r="AF194" s="2">
+        <f t="shared" si="12"/>
+        <v>0.14138938637006315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>25</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>877</v>
+      </c>
+      <c r="D195">
+        <v>2020</v>
+      </c>
+      <c r="E195">
+        <v>194</v>
+      </c>
+      <c r="F195" t="s">
+        <v>697</v>
+      </c>
+      <c r="G195" t="s">
+        <v>713</v>
+      </c>
+      <c r="H195">
+        <v>15.7</v>
+      </c>
+      <c r="I195" t="s">
+        <v>714</v>
+      </c>
+      <c r="J195" t="s">
+        <v>715</v>
+      </c>
+      <c r="K195" t="s">
+        <v>716</v>
+      </c>
+      <c r="L195">
+        <v>14</v>
+      </c>
+      <c r="M195">
+        <v>14</v>
+      </c>
+      <c r="N195" t="s">
+        <v>707</v>
+      </c>
+      <c r="O195" t="s">
+        <v>703</v>
+      </c>
+      <c r="P195" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>747</v>
+      </c>
+      <c r="R195" t="s">
+        <v>1039</v>
+      </c>
+      <c r="S195">
+        <v>-5.36</v>
+      </c>
+      <c r="T195">
+        <v>-2.15</v>
+      </c>
+      <c r="U195">
+        <v>7.5</v>
+      </c>
+      <c r="V195">
+        <v>3.66</v>
+      </c>
+      <c r="W195">
+        <f>L195+M195</f>
+        <v>28</v>
+      </c>
+      <c r="AB195">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AC195">
+        <v>0.15</v>
+      </c>
+      <c r="AD195" s="2">
+        <f t="shared" si="13"/>
+        <v>0.970873786407767</v>
+      </c>
+      <c r="AE195" s="2">
+        <f t="shared" ref="AE195:AE202" si="14">AD195*AB195</f>
+        <v>-0.53398058252427194</v>
+      </c>
+      <c r="AF195" s="2">
+        <f t="shared" ref="AF195:AF202" si="15">(AD195^2)*AC195</f>
+        <v>0.14138938637006315</v>
+      </c>
+    </row>
+    <row r="196" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>25</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>877</v>
+      </c>
+      <c r="D196">
+        <v>2020</v>
+      </c>
+      <c r="E196">
+        <v>195</v>
+      </c>
+      <c r="F196" t="s">
+        <v>697</v>
+      </c>
+      <c r="G196" t="s">
+        <v>713</v>
+      </c>
+      <c r="H196">
+        <v>15.7</v>
+      </c>
+      <c r="I196" t="s">
+        <v>714</v>
+      </c>
+      <c r="J196" t="s">
+        <v>715</v>
+      </c>
+      <c r="K196" t="s">
+        <v>716</v>
+      </c>
+      <c r="L196">
+        <v>14</v>
+      </c>
+      <c r="M196">
+        <v>14</v>
+      </c>
+      <c r="N196" t="s">
+        <v>707</v>
+      </c>
+      <c r="O196" t="s">
+        <v>703</v>
+      </c>
+      <c r="P196" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>724</v>
+      </c>
+      <c r="R196" t="s">
+        <v>1040</v>
+      </c>
+      <c r="S196">
+        <v>14.87</v>
+      </c>
+      <c r="T196">
+        <v>13.69</v>
+      </c>
+      <c r="U196">
+        <v>7.07</v>
+      </c>
+      <c r="V196">
+        <v>9.65</v>
+      </c>
+      <c r="W196">
+        <f>L196+M196</f>
+        <v>28</v>
+      </c>
+      <c r="AB196">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC196">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD196" s="2">
+        <f t="shared" si="13"/>
+        <v>0.970873786407767</v>
+      </c>
+      <c r="AE196" s="2">
+        <f t="shared" si="14"/>
+        <v>0.1359223300970874</v>
+      </c>
+      <c r="AF196" s="2">
+        <f t="shared" si="15"/>
+        <v>0.13196342727872562</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>25</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>877</v>
+      </c>
+      <c r="D197">
+        <v>2020</v>
+      </c>
+      <c r="E197">
+        <v>196</v>
+      </c>
+      <c r="F197" t="s">
+        <v>697</v>
+      </c>
+      <c r="G197" t="s">
+        <v>713</v>
+      </c>
+      <c r="H197">
+        <v>15.7</v>
+      </c>
+      <c r="I197" t="s">
+        <v>714</v>
+      </c>
+      <c r="J197" t="s">
+        <v>715</v>
+      </c>
+      <c r="K197" t="s">
+        <v>716</v>
+      </c>
+      <c r="L197">
+        <v>14</v>
+      </c>
+      <c r="M197">
+        <v>14</v>
+      </c>
+      <c r="N197" t="s">
+        <v>707</v>
+      </c>
+      <c r="O197" t="s">
+        <v>703</v>
+      </c>
+      <c r="P197" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>724</v>
+      </c>
+      <c r="R197" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S197">
+        <v>13.17</v>
+      </c>
+      <c r="T197">
+        <v>10.98</v>
+      </c>
+      <c r="U197">
+        <v>9.5</v>
+      </c>
+      <c r="V197">
+        <v>5.87</v>
+      </c>
+      <c r="W197">
+        <f>L197+M197</f>
+        <v>28</v>
+      </c>
+      <c r="AB197">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC197">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD197" s="2">
+        <f t="shared" si="13"/>
+        <v>0.970873786407767</v>
+      </c>
+      <c r="AE197" s="2">
+        <f t="shared" si="14"/>
+        <v>0.2718446601941748</v>
+      </c>
+      <c r="AF197" s="2">
+        <f t="shared" si="15"/>
+        <v>0.13196342727872562</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>26</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D198">
+        <v>2020</v>
+      </c>
+      <c r="E198">
+        <v>197</v>
+      </c>
+      <c r="F198" t="s">
+        <v>690</v>
+      </c>
+      <c r="G198" t="s">
+        <v>713</v>
+      </c>
+      <c r="H198">
+        <v>15.9</v>
+      </c>
+      <c r="I198" t="s">
+        <v>719</v>
+      </c>
+      <c r="J198" t="s">
+        <v>692</v>
+      </c>
+      <c r="K198" t="s">
+        <v>693</v>
+      </c>
+      <c r="P198" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>704</v>
+      </c>
+      <c r="R198" t="s">
+        <v>1044</v>
+      </c>
+      <c r="W198">
+        <v>58</v>
+      </c>
+      <c r="X198">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB198">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC198">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD198" s="2">
+        <f t="shared" si="13"/>
+        <v>0.98654708520179368</v>
+      </c>
+      <c r="AE198" s="2">
+        <f t="shared" si="14"/>
+        <v>0.13811659192825113</v>
+      </c>
+      <c r="AF198" s="2">
+        <f t="shared" si="15"/>
+        <v>6.8129260592410867E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>26</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D199">
+        <v>2020</v>
+      </c>
+      <c r="E199">
+        <v>198</v>
+      </c>
+      <c r="F199" t="s">
+        <v>690</v>
+      </c>
+      <c r="G199" t="s">
+        <v>713</v>
+      </c>
+      <c r="H199">
+        <v>15.9</v>
+      </c>
+      <c r="I199" t="s">
+        <v>719</v>
+      </c>
+      <c r="J199" t="s">
+        <v>692</v>
+      </c>
+      <c r="K199" t="s">
+        <v>693</v>
+      </c>
+      <c r="P199" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>704</v>
+      </c>
+      <c r="R199" t="s">
+        <v>1045</v>
+      </c>
+      <c r="W199">
+        <v>58</v>
+      </c>
+      <c r="X199">
+        <v>-0.1</v>
+      </c>
+      <c r="AB199">
+        <v>-0.2</v>
+      </c>
+      <c r="AC199">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD199" s="2">
+        <f t="shared" si="13"/>
+        <v>0.98654708520179368</v>
+      </c>
+      <c r="AE199" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.19730941704035876</v>
+      </c>
+      <c r="AF199" s="2">
+        <f t="shared" si="15"/>
+        <v>6.8129260592410867E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>26</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D200">
+        <v>2020</v>
+      </c>
+      <c r="E200">
+        <v>199</v>
+      </c>
+      <c r="F200" t="s">
+        <v>690</v>
+      </c>
+      <c r="G200" t="s">
+        <v>713</v>
+      </c>
+      <c r="H200">
+        <v>15.9</v>
+      </c>
+      <c r="I200" t="s">
+        <v>719</v>
+      </c>
+      <c r="J200" t="s">
+        <v>692</v>
+      </c>
+      <c r="K200" t="s">
+        <v>693</v>
+      </c>
+      <c r="P200" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>704</v>
+      </c>
+      <c r="R200" t="s">
+        <v>1046</v>
+      </c>
+      <c r="W200">
+        <v>58</v>
+      </c>
+      <c r="X200">
+        <v>0.35</v>
+      </c>
+      <c r="AB200">
+        <v>0.75</v>
+      </c>
+      <c r="AC200">
+        <v>0.08</v>
+      </c>
+      <c r="AD200" s="2">
+        <f t="shared" si="13"/>
+        <v>0.98654708520179368</v>
+      </c>
+      <c r="AE200" s="2">
+        <f t="shared" si="14"/>
+        <v>0.73991031390134521</v>
+      </c>
+      <c r="AF200" s="2">
+        <f t="shared" si="15"/>
+        <v>7.7862012105612416E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>27</v>
+      </c>
+      <c r="B201" s="2">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D201">
+        <v>2020</v>
+      </c>
+      <c r="E201">
+        <v>200</v>
+      </c>
+      <c r="F201" t="s">
+        <v>697</v>
+      </c>
+      <c r="G201" t="s">
+        <v>695</v>
+      </c>
+      <c r="H201">
+        <v>12.91</v>
+      </c>
+      <c r="I201" t="s">
+        <v>705</v>
+      </c>
+      <c r="J201" t="s">
+        <v>692</v>
+      </c>
+      <c r="K201" t="s">
+        <v>693</v>
+      </c>
+      <c r="L201">
+        <v>27</v>
+      </c>
+      <c r="M201">
+        <v>237</v>
+      </c>
+      <c r="N201" t="s">
+        <v>701</v>
+      </c>
+      <c r="O201" t="s">
+        <v>703</v>
+      </c>
+      <c r="P201" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>704</v>
+      </c>
+      <c r="R201" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S201">
+        <v>16.09</v>
+      </c>
+      <c r="T201">
+        <v>18.2</v>
+      </c>
+      <c r="U201">
+        <v>7.91</v>
+      </c>
+      <c r="V201">
+        <v>8.18</v>
+      </c>
+      <c r="W201">
+        <f>L201+M201</f>
+        <v>264</v>
+      </c>
+      <c r="AB201">
+        <v>-0.26</v>
+      </c>
+      <c r="AC201">
+        <v>0.04</v>
+      </c>
+      <c r="AD201" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99713467048710602</v>
+      </c>
+      <c r="AE201" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.25925501432664755</v>
+      </c>
+      <c r="AF201" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9771102043497181E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>27</v>
+      </c>
+      <c r="B202" s="2">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D202">
+        <v>2020</v>
+      </c>
+      <c r="E202">
+        <v>201</v>
+      </c>
+      <c r="F202" t="s">
+        <v>697</v>
+      </c>
+      <c r="G202" t="s">
+        <v>695</v>
+      </c>
+      <c r="H202">
+        <v>12.91</v>
+      </c>
+      <c r="I202" t="s">
+        <v>705</v>
+      </c>
+      <c r="J202" t="s">
+        <v>692</v>
+      </c>
+      <c r="K202" t="s">
+        <v>693</v>
+      </c>
+      <c r="L202">
+        <v>27</v>
+      </c>
+      <c r="M202">
+        <v>237</v>
+      </c>
+      <c r="N202" t="s">
+        <v>701</v>
+      </c>
+      <c r="O202" t="s">
+        <v>703</v>
+      </c>
+      <c r="P202" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>704</v>
+      </c>
+      <c r="R202" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S202">
+        <v>12.18</v>
+      </c>
+      <c r="T202">
+        <v>13.95</v>
+      </c>
+      <c r="U202">
+        <v>7.44</v>
+      </c>
+      <c r="V202">
+        <v>7.91</v>
+      </c>
+      <c r="W202">
+        <f t="shared" ref="W202:W209" si="16">L202+M202</f>
+        <v>264</v>
+      </c>
+      <c r="AB202">
+        <v>-0.23</v>
+      </c>
+      <c r="AC202">
+        <v>0.04</v>
+      </c>
+      <c r="AD202" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99713467048710602</v>
+      </c>
+      <c r="AE202" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.22934097421203439</v>
+      </c>
+      <c r="AF202" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9771102043497181E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>27</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D203">
+        <v>2020</v>
+      </c>
+      <c r="E203">
+        <v>202</v>
+      </c>
+      <c r="F203" t="s">
+        <v>697</v>
+      </c>
+      <c r="G203" t="s">
+        <v>695</v>
+      </c>
+      <c r="H203">
+        <v>12.91</v>
+      </c>
+      <c r="I203" t="s">
+        <v>705</v>
+      </c>
+      <c r="J203" t="s">
+        <v>692</v>
+      </c>
+      <c r="K203" t="s">
+        <v>693</v>
+      </c>
+      <c r="L203">
+        <v>27</v>
+      </c>
+      <c r="M203">
+        <v>237</v>
+      </c>
+      <c r="N203" t="s">
+        <v>701</v>
+      </c>
+      <c r="O203" t="s">
+        <v>703</v>
+      </c>
+      <c r="P203" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>704</v>
+      </c>
+      <c r="R203" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S203">
+        <v>3.91</v>
+      </c>
+      <c r="T203">
+        <v>4.26</v>
+      </c>
+      <c r="U203">
+        <v>5.2</v>
+      </c>
+      <c r="V203">
+        <v>6.03</v>
+      </c>
+      <c r="W203">
+        <f t="shared" si="16"/>
+        <v>264</v>
+      </c>
+      <c r="AB203">
+        <v>-0.06</v>
+      </c>
+      <c r="AC203">
+        <v>0.04</v>
+      </c>
+      <c r="AD203" s="2">
+        <f>1-(3/(4*(W203-2)-1))</f>
+        <v>0.99713467048710602</v>
+      </c>
+      <c r="AE203" s="2">
+        <f>AD203*AB203</f>
+        <v>-5.9828080229226359E-2</v>
+      </c>
+      <c r="AF203" s="2">
+        <f>(AD203^2)*AC203</f>
+        <v>3.9771102043497181E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>27</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D204">
+        <v>2020</v>
+      </c>
+      <c r="E204">
+        <v>203</v>
+      </c>
+      <c r="F204" t="s">
+        <v>697</v>
+      </c>
+      <c r="G204" t="s">
+        <v>695</v>
+      </c>
+      <c r="H204">
+        <v>12.42</v>
+      </c>
+      <c r="I204" t="s">
+        <v>705</v>
+      </c>
+      <c r="J204" t="s">
+        <v>692</v>
+      </c>
+      <c r="K204" t="s">
+        <v>693</v>
+      </c>
+      <c r="L204">
+        <v>48</v>
+      </c>
+      <c r="M204">
+        <v>263</v>
+      </c>
+      <c r="N204" t="s">
+        <v>701</v>
+      </c>
+      <c r="O204" t="s">
+        <v>703</v>
+      </c>
+      <c r="P204" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>704</v>
+      </c>
+      <c r="R204" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S204">
+        <v>3.41</v>
+      </c>
+      <c r="T204">
+        <v>3.81</v>
+      </c>
+      <c r="U204">
+        <v>5.12</v>
+      </c>
+      <c r="V204">
+        <v>6.54</v>
+      </c>
+      <c r="W204">
+        <f t="shared" si="16"/>
+        <v>311</v>
+      </c>
+      <c r="AB204">
+        <v>-0.06</v>
+      </c>
+      <c r="AC204">
+        <v>0.02</v>
+      </c>
+      <c r="AD204" s="2">
+        <f t="shared" ref="AD204:AD205" si="17">1-(3/(4*(W204-2)-1))</f>
+        <v>0.99757085020242919</v>
+      </c>
+      <c r="AE204" s="2">
+        <f t="shared" ref="AE204:AE205" si="18">AD204*AB204</f>
+        <v>-5.9854251012145747E-2</v>
+      </c>
+      <c r="AF204" s="2">
+        <f t="shared" ref="AF204:AF205" si="19">(AD204^2)*AC204</f>
+        <v>1.9902952023471948E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>27</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D205">
+        <v>2020</v>
+      </c>
+      <c r="E205">
+        <v>204</v>
+      </c>
+      <c r="F205" t="s">
+        <v>697</v>
+      </c>
+      <c r="G205" t="s">
+        <v>695</v>
+      </c>
+      <c r="H205">
+        <v>12.42</v>
+      </c>
+      <c r="I205" t="s">
+        <v>705</v>
+      </c>
+      <c r="J205" t="s">
+        <v>692</v>
+      </c>
+      <c r="K205" t="s">
+        <v>693</v>
+      </c>
+      <c r="L205">
+        <v>48</v>
+      </c>
+      <c r="M205">
+        <v>263</v>
+      </c>
+      <c r="N205" t="s">
+        <v>701</v>
+      </c>
+      <c r="O205" t="s">
+        <v>703</v>
+      </c>
+      <c r="P205" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>704</v>
+      </c>
+      <c r="R205" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S205">
+        <v>-1.58</v>
+      </c>
+      <c r="T205">
+        <v>-0.21</v>
+      </c>
+      <c r="U205">
+        <v>5.4</v>
+      </c>
+      <c r="V205">
+        <v>4.99</v>
+      </c>
+      <c r="W205">
+        <f t="shared" si="16"/>
+        <v>311</v>
+      </c>
+      <c r="AB205">
+        <v>-0.27</v>
+      </c>
+      <c r="AC205">
+        <v>0.02</v>
+      </c>
+      <c r="AD205" s="2">
+        <f t="shared" si="17"/>
+        <v>0.99757085020242919</v>
+      </c>
+      <c r="AE205" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.26934412955465592</v>
+      </c>
+      <c r="AF205" s="2">
+        <f t="shared" si="19"/>
+        <v>1.9902952023471948E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>27</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D206">
+        <v>2020</v>
+      </c>
+      <c r="E206">
+        <v>205</v>
+      </c>
+      <c r="F206" t="s">
+        <v>697</v>
+      </c>
+      <c r="G206" t="s">
+        <v>695</v>
+      </c>
+      <c r="H206">
+        <v>12.42</v>
+      </c>
+      <c r="I206" t="s">
+        <v>705</v>
+      </c>
+      <c r="J206" t="s">
+        <v>692</v>
+      </c>
+      <c r="K206" t="s">
+        <v>693</v>
+      </c>
+      <c r="L206">
+        <v>48</v>
+      </c>
+      <c r="M206">
+        <v>263</v>
+      </c>
+      <c r="N206" t="s">
+        <v>701</v>
+      </c>
+      <c r="O206" t="s">
+        <v>703</v>
+      </c>
+      <c r="P206" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>704</v>
+      </c>
+      <c r="R206" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S206">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="T206">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="U206">
+        <v>5.14</v>
+      </c>
+      <c r="V206">
+        <v>5.99</v>
+      </c>
+      <c r="W206">
+        <f t="shared" si="16"/>
+        <v>311</v>
+      </c>
+      <c r="AB206">
+        <v>0.16</v>
+      </c>
+      <c r="AC206">
+        <v>0.02</v>
+      </c>
+      <c r="AD206" s="2">
+        <f>1-(3/(4*(W206-2)-1))</f>
+        <v>0.99757085020242919</v>
+      </c>
+      <c r="AE206" s="2">
+        <f>AD206*AB206</f>
+        <v>0.15961133603238867</v>
+      </c>
+      <c r="AF206" s="2">
+        <f>(AD206^2)*AC206</f>
+        <v>1.9902952023471948E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>27</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D207">
+        <v>2020</v>
+      </c>
+      <c r="E207">
+        <v>206</v>
+      </c>
+      <c r="F207" t="s">
+        <v>697</v>
+      </c>
+      <c r="G207" t="s">
+        <v>695</v>
+      </c>
+      <c r="H207">
+        <v>14.41</v>
+      </c>
+      <c r="I207" t="s">
+        <v>705</v>
+      </c>
+      <c r="J207" t="s">
+        <v>692</v>
+      </c>
+      <c r="K207" t="s">
+        <v>693</v>
+      </c>
+      <c r="L207">
+        <v>33</v>
+      </c>
+      <c r="M207">
+        <v>222</v>
+      </c>
+      <c r="N207" t="s">
+        <v>701</v>
+      </c>
+      <c r="O207" t="s">
+        <v>703</v>
+      </c>
+      <c r="P207" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>704</v>
+      </c>
+      <c r="R207" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S207">
+        <v>6.55</v>
+      </c>
+      <c r="T207">
+        <v>6.64</v>
+      </c>
+      <c r="U207">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="V207">
+        <v>6.14</v>
+      </c>
+      <c r="W207">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+      <c r="AB207">
+        <v>-0.02</v>
+      </c>
+      <c r="AC207">
+        <v>0.03</v>
+      </c>
+      <c r="AD207" s="2">
+        <f t="shared" ref="AD207:AD208" si="20">1-(3/(4*(W207-2)-1))</f>
+        <v>0.9970326409495549</v>
+      </c>
+      <c r="AE207" s="2">
+        <f t="shared" ref="AE207:AE208" si="21">AD207*AB207</f>
+        <v>-1.9940652818991097E-2</v>
+      </c>
+      <c r="AF207" s="2">
+        <f t="shared" ref="AF207:AF208" si="22">(AD207^2)*AC207</f>
+        <v>2.9822222613565319E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>27</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D208">
+        <v>2020</v>
+      </c>
+      <c r="E208">
+        <v>207</v>
+      </c>
+      <c r="F208" t="s">
+        <v>697</v>
+      </c>
+      <c r="G208" t="s">
+        <v>695</v>
+      </c>
+      <c r="H208">
+        <v>14.41</v>
+      </c>
+      <c r="I208" t="s">
+        <v>705</v>
+      </c>
+      <c r="J208" t="s">
+        <v>692</v>
+      </c>
+      <c r="K208" t="s">
+        <v>693</v>
+      </c>
+      <c r="L208">
+        <v>33</v>
+      </c>
+      <c r="M208">
+        <v>222</v>
+      </c>
+      <c r="N208" t="s">
+        <v>701</v>
+      </c>
+      <c r="O208" t="s">
+        <v>703</v>
+      </c>
+      <c r="P208" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>704</v>
+      </c>
+      <c r="R208" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S208">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T208">
+        <v>2.7</v>
+      </c>
+      <c r="U208">
+        <v>4.43</v>
+      </c>
+      <c r="V208">
+        <v>5.69</v>
+      </c>
+      <c r="W208">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+      <c r="AB208">
+        <v>-0.09</v>
+      </c>
+      <c r="AC208">
+        <v>0.03</v>
+      </c>
+      <c r="AD208" s="2">
+        <f t="shared" si="20"/>
+        <v>0.9970326409495549</v>
+      </c>
+      <c r="AE208" s="2">
+        <f t="shared" si="21"/>
+        <v>-8.9732937685459938E-2</v>
+      </c>
+      <c r="AF208" s="2">
+        <f t="shared" si="22"/>
+        <v>2.9822222613565319E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>27</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D209">
+        <v>2020</v>
+      </c>
+      <c r="E209">
+        <v>208</v>
+      </c>
+      <c r="F209" t="s">
+        <v>697</v>
+      </c>
+      <c r="G209" t="s">
+        <v>695</v>
+      </c>
+      <c r="H209">
+        <v>14.41</v>
+      </c>
+      <c r="I209" t="s">
+        <v>705</v>
+      </c>
+      <c r="J209" t="s">
+        <v>692</v>
+      </c>
+      <c r="K209" t="s">
+        <v>693</v>
+      </c>
+      <c r="L209">
+        <v>33</v>
+      </c>
+      <c r="M209">
+        <v>222</v>
+      </c>
+      <c r="N209" t="s">
+        <v>701</v>
+      </c>
+      <c r="O209" t="s">
+        <v>703</v>
+      </c>
+      <c r="P209" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>704</v>
+      </c>
+      <c r="R209" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S209">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="T209">
+        <v>3.94</v>
+      </c>
+      <c r="U209">
+        <v>5.32</v>
+      </c>
+      <c r="V209">
+        <v>6.75</v>
+      </c>
+      <c r="W209">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+      <c r="AB209">
+        <v>0.06</v>
+      </c>
+      <c r="AC209">
+        <v>0.03</v>
+      </c>
+      <c r="AD209" s="2">
+        <f>1-(3/(4*(W209-2)-1))</f>
+        <v>0.9970326409495549</v>
+      </c>
+      <c r="AE209" s="2">
+        <f>AD209*AB209</f>
+        <v>5.9821958456973294E-2</v>
+      </c>
+      <c r="AF209" s="2">
+        <f>(AD209^2)*AC209</f>
+        <v>2.9822222613565319E-2</v>
       </c>
     </row>
   </sheetData>
@@ -24044,13 +26374,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>820</v>
       </c>
@@ -24064,7 +26394,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>821</v>
       </c>
@@ -24078,7 +26408,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>823</v>
       </c>
@@ -24092,7 +26422,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>825</v>
       </c>
@@ -24106,7 +26436,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>827</v>
       </c>
@@ -24120,7 +26450,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>829</v>
       </c>
@@ -24134,7 +26464,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>831</v>
       </c>
@@ -24148,7 +26478,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>833</v>
       </c>
@@ -24159,7 +26489,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>835</v>
       </c>
@@ -24170,7 +26500,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>837</v>
       </c>
@@ -24181,20 +26511,20 @@
         <v>841</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C12" t="s">
         <v>841</v>
@@ -24220,6 +26550,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -24442,22 +26787,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B9A47D-9A6D-4087-8FA8-4E1598E50986}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24474,29 +26829,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B9A47D-9A6D-4087-8FA8-4E1598E50986}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="061b3361-47e6-4fd1-b7fc-4e45b1c77d33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>